--- a/plan/test/結合テスト/結合テスト仕様書-BP017注文ステータス更新(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP017注文ステータス更新(確認)画面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB19A16-CB77-4B28-BEE5-91400250928C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB23AA1-7C10-472D-892C-68178D233921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>作成者</t>
   </si>
@@ -659,6 +659,62 @@
     </rPh>
     <rPh sb="61" eb="62">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「不正な操作」</t>
+    <rPh sb="1" eb="3">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン前メニュー」画面が表示される。</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティ確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/updateorderstatus/confirm」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/updateorderstatus/confirm」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1019,125 +1075,125 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1489,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:L26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1508,25 +1564,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1541,23 +1597,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="38" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1570,50 +1626,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="47"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1622,20 +1678,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="18" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1645,82 +1701,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="30"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="25" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1732,18 +1788,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1755,18 +1811,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="25" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1778,18 +1834,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="25" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1801,18 +1857,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="25" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1824,18 +1880,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="25" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1847,20 +1903,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1872,20 +1928,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="25" t="s">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1897,18 +1953,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="25" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1920,18 +1976,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="25" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1943,18 +1999,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="25" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1965,206 +2021,258 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="21" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="21" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="21" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="21" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="21" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="22" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22" t="s">
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22" t="s">
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+    </row>
+    <row r="27" spans="1:17" ht="56.5" customHeight="1">
+      <c r="A27" s="6">
+        <v>22</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A28" s="6">
+        <v>23</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="63">
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="P26:Q26"/>
@@ -2223,6 +2331,11 @@
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP017注文ステータス更新(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP017注文ステータス更新(確認)画面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB23AA1-7C10-472D-892C-68178D233921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35929511-E1E3-4B32-A558-F9D4385338C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,22 +493,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>購入履歴検索画面へ遷移すること</t>
-    <rPh sb="0" eb="4">
-      <t>コウニュウリレキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「確認」を押下</t>
     <rPh sb="1" eb="3">
       <t>カクニン</t>
@@ -544,16 +528,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メニュー画面へ遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -715,6 +689,35 @@
     </rPh>
     <rPh sb="71" eb="73">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー画面へ遷移し、セッションが破棄される</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入履歴検索画面へ遷移する</t>
+    <rPh sb="0" eb="4">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1075,6 +1078,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1084,18 +1102,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1126,6 +1138,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1147,53 +1195,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1547,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:G28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1564,25 +1567,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1597,23 +1600,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="51" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1626,50 +1629,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="53"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1678,20 +1681,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1701,82 +1704,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="41"/>
+      <c r="Q5" s="56"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="18" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1788,18 +1791,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="18" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1811,18 +1814,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="18" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1834,18 +1837,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="18" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1857,18 +1860,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="18" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1880,18 +1883,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="18" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1903,20 +1906,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="18" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1928,20 +1931,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1953,18 +1956,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="18" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1976,18 +1979,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="18" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1999,18 +2002,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="18" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2021,225 +2024,225 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="43" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="43" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="43" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="43" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="43" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-    </row>
-    <row r="24" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="1:17" ht="12" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="57" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="1:17" ht="56.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21" t="s">
+      <c r="B27" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23"/>
+      <c r="C27" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2250,21 +2253,21 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2273,15 +2276,44 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G18"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
     <mergeCell ref="B19:B26"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="H19:L19"/>
@@ -2298,44 +2330,15 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G18"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP017注文ステータス更新(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP017注文ステータス更新(確認)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35929511-E1E3-4B32-A558-F9D4385338C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4C3D8A-BE26-43B6-8877-C8FB77A73D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,32 +667,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/updateorderstatus/confirm」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/updateorderstatus/confirm」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メニュー画面へ遷移し、セッションが破棄される</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -718,6 +692,32 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/updateorderstatus/confirm」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/updateorderstatus/confirm」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1078,125 +1078,125 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1551,7 +1551,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22:Q22"/>
+      <selection activeCell="C28" sqref="C28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1567,25 +1567,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1600,23 +1600,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="44" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1629,50 +1629,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="53"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="53"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1681,20 +1681,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="55" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1704,82 +1704,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="55" t="s">
+      <c r="P5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="56"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1791,18 +1791,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="23" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1814,18 +1814,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="23" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1837,18 +1837,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="23" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1860,18 +1860,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="23" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1883,18 +1883,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="23" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1906,20 +1906,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1931,20 +1931,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="23" t="s">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1956,18 +1956,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="23" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1979,18 +1979,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="23" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2002,18 +2002,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="23" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2024,225 +2024,225 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="19" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="19" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="19" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="19" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="19" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
     </row>
     <row r="24" spans="1:17" ht="12" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20" t="s">
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
     </row>
     <row r="27" spans="1:17" ht="56.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="20" t="s">
+      <c r="C27" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2253,21 +2253,21 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="20" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2276,44 +2276,15 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G18"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
     <mergeCell ref="B19:B26"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="H19:L19"/>
@@ -2330,15 +2301,44 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G18"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP017注文ステータス更新(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP017注文ステータス更新(確認)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4C3D8A-BE26-43B6-8877-C8FB77A73D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9B4F99-BC36-4D6E-A372-6FB6BE9451E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>作成者</t>
   </si>
@@ -718,6 +718,27 @@
     </rPh>
     <rPh sb="77" eb="79">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSRF対策：
+画面をリロードする</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのままの画面が表示されること</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1078,6 +1099,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1087,18 +1123,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1129,6 +1159,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1150,53 +1216,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1548,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:G28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1567,25 +1588,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1600,23 +1621,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="51" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1629,50 +1650,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="53"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1681,20 +1702,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1704,82 +1725,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="41"/>
+      <c r="Q5" s="56"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="18" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1791,18 +1812,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="18" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1814,18 +1835,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="18" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1837,18 +1858,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="18" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1860,18 +1881,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="18" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1883,18 +1904,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="18" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1906,20 +1927,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="18" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1931,20 +1952,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="18" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1956,18 +1977,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="18" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1979,18 +2000,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="18" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2002,18 +2023,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="18" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2024,225 +2045,225 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="43" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="43" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="43" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="43" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="43" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
     </row>
     <row r="24" spans="1:17" ht="12" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="18" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="57" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="21" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="57" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="21" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="1:17" ht="56.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2253,38 +2274,94 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
     </row>
+    <row r="29" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A29" s="6">
+        <v>24</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
+  <mergeCells count="65">
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G18"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
     <mergeCell ref="B19:B26"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="H19:L19"/>
@@ -2301,44 +2378,15 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G18"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP017注文ステータス更新(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP017注文ステータス更新(確認)画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9B4F99-BC36-4D6E-A372-6FB6BE9451E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BEC86C-6741-46E0-A044-3E773FE7AA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
   <si>
     <t>作成者</t>
   </si>
@@ -489,35 +489,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「確認」を押下</t>
-    <rPh sb="1" eb="3">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>注文ステータス更新(確認)画面へ遷移すること</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -637,29 +608,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「不正な操作」</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ログイン前メニュー」画面が表示される。</t>
-    <rPh sb="5" eb="6">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>セキュリティ確認</t>
     <rPh sb="6" eb="8">
       <t>カクニン</t>
@@ -739,6 +687,75 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「完了」を押下</t>
+    <rPh sb="1" eb="3">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注文ステータス更新(完了)画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同じ画面に遷移</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン前」画面が表示される。</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川・高良</t>
+    <rPh sb="0" eb="2">
+      <t>タチカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1099,125 +1116,125 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1571,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1588,25 +1605,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,23 +1638,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="44" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1647,53 +1664,55 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="53"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="53"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1702,20 +1721,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="55" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1725,85 +1744,103 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="55" t="s">
+      <c r="P5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="56"/>
+      <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
     </row>
@@ -1812,21 +1849,27 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="23" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
@@ -1835,21 +1878,27 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="23" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
     </row>
@@ -1858,21 +1907,27 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="23" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
@@ -1881,21 +1936,27 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="23" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
@@ -1904,21 +1965,27 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="23" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
@@ -1927,23 +1994,29 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
@@ -1952,23 +2025,29 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
@@ -1977,21 +2056,27 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="23" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
     </row>
@@ -2000,21 +2085,27 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="23" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
     </row>
@@ -2023,21 +2114,27 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="23" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
     </row>
@@ -2045,227 +2142,279 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="19" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="19" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="19" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="19" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="19" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
     </row>
     <row r="24" spans="1:17" ht="12" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
     </row>
     <row r="27" spans="1:17" ht="56.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="7"/>
+      <c r="B27" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="O27" s="7"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="17"/>
@@ -2274,24 +2423,30 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
     </row>
@@ -2299,69 +2454,44 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G18"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
     <mergeCell ref="B19:B26"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="H19:L19"/>
@@ -2378,15 +2508,46 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G18"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP017注文ステータス更新(確認)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP017注文ステータス更新(確認)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BEC86C-6741-46E0-A044-3E773FE7AA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3378F1-7AE1-474C-BA70-900851E6B13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
   <si>
     <t>作成者</t>
   </si>
@@ -1116,6 +1116,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1125,15 +1140,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1170,6 +1176,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1191,50 +1233,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1588,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:G27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1605,25 +1605,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1638,23 +1638,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="51" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1669,50 +1669,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="39"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="53"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="39"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1721,20 +1721,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="41" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1744,32 +1744,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="41" t="s">
+      <c r="P5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="42"/>
+      <c r="Q5" s="56"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="15">
         <v>45511</v>
       </c>
@@ -1779,28 +1779,28 @@
       <c r="O6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="15">
         <v>45511</v>
       </c>
@@ -1810,28 +1810,28 @@
       <c r="O7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="18" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="15">
         <v>45511</v>
       </c>
@@ -1849,18 +1849,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="18" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="15">
         <v>45511</v>
       </c>
@@ -1878,18 +1878,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="18" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="15">
         <v>45511</v>
       </c>
@@ -1907,18 +1907,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="18" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="15">
         <v>45511</v>
       </c>
@@ -1936,18 +1936,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="18" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="15">
         <v>45511</v>
       </c>
@@ -1965,18 +1965,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="18" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="15">
         <v>45511</v>
       </c>
@@ -1994,20 +1994,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="18" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="15">
         <v>45511</v>
       </c>
@@ -2025,20 +2025,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="18" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="15">
         <v>45511</v>
       </c>
@@ -2056,18 +2056,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="18" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="15">
         <v>45511</v>
       </c>
@@ -2085,18 +2085,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="18" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
       <c r="M17" s="15">
         <v>45511</v>
       </c>
@@ -2114,18 +2114,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="18" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="15">
         <v>45511</v>
       </c>
@@ -2142,23 +2142,23 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="43" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="15">
         <v>45511</v>
       </c>
@@ -2168,28 +2168,28 @@
       <c r="O19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="43" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="15">
         <v>45511</v>
       </c>
@@ -2199,28 +2199,28 @@
       <c r="O20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="43" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="15">
         <v>45511</v>
       </c>
@@ -2230,28 +2230,28 @@
       <c r="O21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="43" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="15">
         <v>45511</v>
       </c>
@@ -2261,28 +2261,28 @@
       <c r="O22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="43" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="15">
         <v>45511</v>
       </c>
@@ -2292,28 +2292,28 @@
       <c r="O23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
     </row>
     <row r="24" spans="1:17" ht="12" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="18" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="15">
         <v>45511</v>
       </c>
@@ -2323,28 +2323,28 @@
       <c r="O24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="57" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="21" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
       <c r="M25" s="15">
         <v>45511</v>
       </c>
@@ -2354,28 +2354,28 @@
       <c r="O25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="57" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="21" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="15">
         <v>45511</v>
       </c>
@@ -2385,37 +2385,39 @@
       <c r="O26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="1:17" ht="56.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
       <c r="M27" s="15">
         <v>45511</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O27" s="7"/>
+      <c r="O27" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P27" s="16"/>
       <c r="Q27" s="17"/>
     </row>
@@ -2423,21 +2425,21 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
       <c r="M28" s="15">
         <v>45511</v>
       </c>
@@ -2454,21 +2456,21 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="18" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21" t="s">
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22"/>
       <c r="M29" s="15">
         <v>45511</v>
       </c>
@@ -2483,15 +2485,46 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G18"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
     <mergeCell ref="B19:B26"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="H19:L19"/>
@@ -2508,46 +2541,15 @@
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G18"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
